--- a/a2/algorithm_evaluation.xlsx
+++ b/a2/algorithm_evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxky\Documents\GitHub\tmp\cryptography\a2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE65F96-3C2C-4A07-8E29-871E6441A8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A0D101-13E1-4AB4-B4D0-771002F341D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3408" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,6 +76,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,10 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +419,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,17 +541,29 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="3">
+        <v>68.872180451127804</v>
+      </c>
+      <c r="C6" s="3">
+        <v>75.526315789473699</v>
+      </c>
+      <c r="D6" s="3">
+        <v>74.605263157894697</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="3">
+        <v>68.620984278879007</v>
+      </c>
+      <c r="C7" s="3">
+        <v>74.606971975392995</v>
+      </c>
+      <c r="D7" s="3">
+        <v>76.437115516062903</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
